--- a/Docs/Requirements/importFromExcelTemplate/班级.xlsx
+++ b/Docs/Requirements/importFromExcelTemplate/班级.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="7660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>班级名</t>
   </si>
@@ -24,9 +29,6 @@
     <t>年级</t>
   </si>
   <si>
-    <t>校区名</t>
-  </si>
-  <si>
     <t>学校</t>
   </si>
   <si>
@@ -39,9 +41,6 @@
     <t>三年2班</t>
   </si>
   <si>
-    <t>天极海淀分校</t>
-  </si>
-  <si>
     <t>北京天极中学</t>
   </si>
   <si>
@@ -54,12 +53,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,20 +384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,55 +413,67 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>